--- a/adaptive-bc/gdtj_qdr.xlsx
+++ b/adaptive-bc/gdtj_qdr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panchonglin\Desktop\opinion\adaptive-bc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B95295-4ECB-4C5F-AD67-8FD5C013B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E0C9F-32D4-497B-BD8D-7D9EB1395DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -416,10 +416,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -433,10 +433,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -450,10 +450,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -467,10 +467,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -603,10 +603,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -620,10 +620,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -637,10 +637,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
         <v>6</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -654,10 +654,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -671,10 +671,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
         <v>8</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -824,10 +824,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -977,10 +977,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -994,10 +994,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50">
         <v>23</v>
-      </c>
-      <c r="B50">
-        <v>24</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1402,10 +1402,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1742,10 +1742,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1759,10 +1759,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A47B30-05AD-448A-8FF4-8E2961F233EE}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>0</v>

--- a/adaptive-bc/gdtj_qdr.xlsx
+++ b/adaptive-bc/gdtj_qdr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panchonglin\Desktop\opinion\adaptive-bc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E0C9F-32D4-497B-BD8D-7D9EB1395DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F4EA02-7BBE-4858-AB46-CCAB0D16ED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>听的观点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +67,10 @@
   </si>
   <si>
     <t>初始观点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始情绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +399,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1884,431 +1891,595 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A47B30-05AD-448A-8FF4-8E2961F233EE}">
-  <dimension ref="A1:B52"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.42223065900000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.42223065900000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.372870323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.25031084599999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.91910421200000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.132203928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.82084387400000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.75443511500000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.42983937500000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.94061534000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.99903662299999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0.47001145100000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0.74881185299999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0.86018088500000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.85382498100000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.43177970999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0.99900831700000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.17751858700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.48503677699999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>7.8671089E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3.9582929000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.99919460500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.76535743499999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>6.6929626000000006E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.99103956699999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.116422677</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.97453660200000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>2.8396576999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2.9684199999999999E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0.20485563400000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0.975661153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.88965558499999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0.91526539900000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0.444542241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0.65426172400000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0.16920131099999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0.98194598799999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0.75280066000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0.58870730199999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0.939236607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0.30238830500000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.117821128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>4.0388642000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0.41273272799999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0.49375455600000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0.68635761699999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0.71984298300000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0.99303249699999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0.39033072800000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
+      <c r="C52">
+        <v>0.43290596799999997</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C52" xr:uid="{33A47B30-05AD-448A-8FF4-8E2961F233EE}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="0.5"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
